--- a/biology/Microbiologie/Holostichidae/Holostichidae.xlsx
+++ b/biology/Microbiologie/Holostichidae/Holostichidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Holostichidae sont une famille de Ciliés de la classe des Hypotrichea et de l’ordre des Urostylida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Holosticha, de hol-, « entier, complet », et -stich, « rang, file », en référence aux « rangées ventrales de cils »[1] que ces ciliés possèdent. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Holosticha, de hol-, « entier, complet », et -stich, « rang, file », en référence aux « rangées ventrales de cils » que ces ciliés possèdent. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Holosticha est un cilié ayant des crêtes transversales et une à trois rangées ventrales de cils. Il est très riche en espèces et, en 1932, le biologiste allemand Alfred Kahl (1877-1946), le divise en plusieurs sous-genres[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Holosticha est un cilié ayant des crêtes transversales et une à trois rangées ventrales de cils. Il est très riche en espèces et, en 1932, le biologiste allemand Alfred Kahl (1877-1946), le divise en plusieurs sous-genres.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (27 mars 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (27 mars 2023) :
 Afrothrix Foissner, 1999
 Amphisia
 Amphista
@@ -623,9 +641,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Holostichidae Fauré-Fremiet, 1961[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Holostichidae Fauré-Fremiet, 1961.
 </t>
         </is>
       </c>
